--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,51 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8 camera(1,2,3)
+u8 ready(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH{THR]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw_ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +277,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,7 +575,7 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,8 +594,11 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -566,8 +617,14 @@
       <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1200</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -586,8 +643,14 @@
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1300</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -606,24 +669,54 @@
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1600</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
@@ -631,31 +724,31 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="H5">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>27</v>
@@ -710,7 +710,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="H6">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>28</v>

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打舵量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前红色中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,46 @@
   </si>
   <si>
     <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8 mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后打舵量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前打舵量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +601,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,12 +631,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -621,38 +657,38 @@
         <v>1200</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>1300</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -673,56 +709,80 @@
         <v>1400</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>1600</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H6">
         <v>1700</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,11 +59,6 @@
   </si>
   <si>
     <t>SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8 x 
-u8 y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,11 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8 x 
-u8 y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +171,13 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8 x 
+u8 y
+u8 ratio
+u8 target_get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +598,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,12 +628,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -648,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>8</v>
@@ -657,38 +654,38 @@
         <v>1200</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>1300</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -700,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
@@ -709,79 +706,79 @@
         <v>1400</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="H5">
         <v>1600</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="H6">
         <v>1700</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,11 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8 x 
+u8 y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>u8 x 
+u8 y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,13 +181,6 @@
   </si>
   <si>
     <t>SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8 x 
-u8 y
-u8 ratio
-u8 target_get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +601,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,12 +631,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -645,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>8</v>
@@ -654,38 +657,38 @@
         <v>1200</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1300</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -697,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
@@ -706,79 +709,79 @@
         <v>1400</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>1600</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>1700</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>帧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +605,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,6 +787,12 @@
       <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="H7">
+        <v>1800</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
